--- a/test/HWDBUploader/UnitTest/001/test_biff_upload/test_biff_upload.xlsx
+++ b/test/HWDBUploader/UnitTest/001/test_biff_upload/test_biff_upload.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z00100300022</t>
+          <t>Z.Sandbox.HWDBUnitTest.biff</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Z.Sandbox.HWDBUnitTest.biff</t>
+          <t>Z00100300022</t>
         </is>
       </c>
     </row>
@@ -547,31 +547,31 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>39486633-95E4-4991-B4EE-ECDDCBD85FBD</t>
+          <t>03532066-3DF8-44E2-9E77-385DEB7FFAE0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>generated 2023-10-18 16:21:52</t>
+          <t>generated 2023-12-12 00:17:40</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>101.5</v>
+        <v>116.89</v>
       </c>
       <c r="E9" t="n">
-        <v>103.73</v>
+        <v>97.73999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>101.42</v>
+        <v>110.21</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6AA565A6-045F-4B44-B66D-CEF9E4A39D52</t>
+          <t>3539CBF4-04D5-4BDD-AAE3-61CBB5F3A2CA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BCF8585A-835B-46D8-8EE4-B17A50559488</t>
+          <t>B93E8AA7-F6FE-4384-A722-6A4359B6A0A4</t>
         </is>
       </c>
     </row>
